--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuentinPotgieter\Documents\UiPath\UiPath Automation33361908\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4A97B4-59B7-4DE8-89C5-67B79A5D3EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE00F5E-A3AC-4612-890C-679C5FC34D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="2976" yWindow="1224" windowWidth="17280" windowHeight="9024" firstSheet="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -295,7 +295,10 @@
     <x:t>FALSE</x:t>
   </x:si>
   <x:si>
-    <x:t>Tue</x:t>
+    <x:t>False</x:t>
+  </x:si>
+  <x:si>
+    <x:t>True</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1175,7 +1178,7 @@
   <x:dimension ref="A1:E24"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D9" sqref="D9"/>
+      <x:selection activeCell="J9" sqref="J9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1186,7 +1189,7 @@
     <x:col min="5" max="5" width="18" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1203,7 +1206,7 @@
         <x:v>74</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A2" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -1214,13 +1217,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D2" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E2" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A3" s="2" t="s">
         <x:v>43</x:v>
       </x:c>
@@ -1231,13 +1234,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D3" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E3" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A4" s="2" t="s">
         <x:v>45</x:v>
       </x:c>
@@ -1248,13 +1251,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A5" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -1265,13 +1268,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E5" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A6" s="2" t="s">
         <x:v>49</x:v>
       </x:c>
@@ -1282,13 +1285,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E6" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A7" s="2" t="s">
         <x:v>52</x:v>
       </x:c>
@@ -1299,13 +1302,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E7" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A8" s="2" t="s">
         <x:v>54</x:v>
       </x:c>
@@ -1316,13 +1319,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E8" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A9" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
@@ -1333,13 +1336,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D9" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E9" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A10" s="2" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -1350,98 +1353,98 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E10" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A11" s="2" t="s">
         <x:v>61</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E11" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A12" s="2" t="s">
         <x:v>63</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E12" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A13" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E13" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A14" s="2" t="s">
         <x:v>67</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E14" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A15" s="2" t="s">
         <x:v>69</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E15" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A16" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -1452,13 +1455,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E16" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A17" s="2" t="s">
         <x:v>11</x:v>
       </x:c>
@@ -1469,13 +1472,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E17" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A18" s="2" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -1486,13 +1489,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E18" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A19" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1503,13 +1506,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E19" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A20" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -1520,13 +1523,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E20" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A21" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -1537,13 +1540,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E21" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A22" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -1554,13 +1557,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E22" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A23" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
@@ -1571,13 +1574,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E23" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <x:c r="A24" s="2" t="s">
         <x:v>37</x:v>
       </x:c>
@@ -1588,7 +1591,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E24" s="2" t="s">
         <x:v>75</x:v>
